--- a/megabox영화.xlsx
+++ b/megabox영화.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greencomputer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greencomputer\SpringBoot\IdeaProjects\megabox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8940BB00-F190-4879-8A1E-DB4B65537F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A26FD3-F1A8-4096-93D3-ED03796942C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92EBAD0C-383B-4A4D-B97B-C90C627D3C0A}"/>
+    <workbookView xWindow="-54120" yWindow="10965" windowWidth="25440" windowHeight="15270" xr2:uid="{92EBAD0C-383B-4A4D-B97B-C90C627D3C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>director</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +238,6 @@
   </si>
   <si>
     <t>손석구 ,  김성철 ,  김동휘 ,  홍경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소년관람불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -405,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체관람가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>116분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,22 +416,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attendance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posterURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUB_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOVIE_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RELEASE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +441,34 @@
   </si>
   <si>
     <t>movie_seq.nextval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE_RATING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_RATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_RATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,16 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B5C606-F2C4-45EB-9F0C-A0037786D050}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -883,468 +878,464 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.3125" customWidth="1"/>
     <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="169.125" customWidth="1"/>
-    <col min="13" max="13" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="169.125" customWidth="1"/>
+    <col min="12" max="12" width="10.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="101.25" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>45350</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="202.5" x14ac:dyDescent="0.6">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="M2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="202.5" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
       <c r="I3" s="2">
         <v>45344</v>
       </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="168.75" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="168.75" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="2">
         <v>45371</v>
       </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="118.15" x14ac:dyDescent="0.6">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="M4">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="118.15" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="2">
         <v>45372</v>
       </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5">
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5">
         <v>4000000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2">
         <v>45378</v>
       </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="270" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M6">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="270" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2">
         <v>45365</v>
       </c>
       <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="M7">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
       </c>
       <c r="I8" s="2">
         <v>45357</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="101.25" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="M8">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
       </c>
       <c r="I9" s="2">
         <v>45378</v>
       </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="202.5" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="M9">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="202.5" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
       </c>
       <c r="I10" s="2">
         <v>45364</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="M10">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
       </c>
       <c r="I11" s="2">
         <v>45336</v>
       </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="M11">
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11">
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="168.75" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" ht="168.75" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="2">
         <v>45322</v>
       </c>
       <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12">
+      <c r="L12">
         <v>11000000</v>
       </c>
     </row>
